--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF6CCC-E90D-416B-BF10-95288FCCDB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FEA2E-D846-46C9-8E0A-17D2D44BCC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -3308,11 +3308,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1450">
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7001,8 +7001,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7536,23 +7536,23 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H12" s="94">
@@ -11760,7 +11760,7 @@
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="145"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -11851,7 +11851,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
       </c>
@@ -11937,7 +11937,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
       </c>
@@ -11958,7 +11958,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -11981,7 +11981,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
       </c>
@@ -12067,7 +12067,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12144,7 +12144,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -12209,7 +12209,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
       </c>
@@ -12251,7 +12251,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
       </c>
@@ -12316,7 +12316,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -12339,7 +12339,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="145"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -12404,7 +12404,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="145"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="145"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -12502,7 +12502,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="145"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -12567,7 +12567,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="145"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
       </c>
@@ -12588,7 +12588,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="145"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
       </c>
@@ -12609,7 +12609,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -12632,7 +12632,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
       </c>
@@ -12653,7 +12653,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
       </c>
@@ -12674,7 +12674,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
       </c>
@@ -12718,7 +12718,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
       </c>
@@ -12739,7 +12739,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="145"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
       </c>
@@ -12783,7 +12783,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
       </c>
@@ -12829,12 +12829,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12844,6 +12838,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20949,8 +20949,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21138,7 +21138,7 @@
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="145">
         <f>U5_mortality</f>
         <v>0</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="146">
+      <c r="C14" s="145">
         <f>maternal_mortality</f>
         <v>0</v>
       </c>
@@ -21182,7 +21182,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21297,9 +21297,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FEA2E-D846-46C9-8E0A-17D2D44BCC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26449B7-A21A-49C7-9BCF-05EAAF94619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,18 @@
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
     <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
-    <sheet name="Programs impacted population" sheetId="62" r:id="rId14"/>
-    <sheet name="Program risk areas" sheetId="63" state="hidden" r:id="rId15"/>
-    <sheet name="Population risk areas" sheetId="64" state="hidden" r:id="rId16"/>
-    <sheet name="IYCF odds ratios" sheetId="65" state="hidden" r:id="rId17"/>
-    <sheet name="Birth outcome risks" sheetId="66" state="hidden" r:id="rId18"/>
-    <sheet name="Relative risks" sheetId="67" state="hidden" r:id="rId19"/>
-    <sheet name="Odds ratios" sheetId="68" state="hidden" r:id="rId20"/>
-    <sheet name="Programs birth outcomes" sheetId="69" state="hidden" r:id="rId21"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId22"/>
-    <sheet name="Programs wasting" sheetId="71" state="hidden" r:id="rId23"/>
-    <sheet name="Programs for children" sheetId="72" state="hidden" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId13"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Program risk areas" sheetId="63" r:id="rId15"/>
+    <sheet name="Population risk areas" sheetId="64" r:id="rId16"/>
+    <sheet name="IYCF odds ratios" sheetId="65" r:id="rId17"/>
+    <sheet name="Birth outcome risks" sheetId="66" r:id="rId18"/>
+    <sheet name="Relative risks" sheetId="67" r:id="rId19"/>
+    <sheet name="Odds ratios" sheetId="68" r:id="rId20"/>
+    <sheet name="Programs birth outcomes" sheetId="69" r:id="rId21"/>
+    <sheet name="Programs anemia" sheetId="70" r:id="rId22"/>
+    <sheet name="Programs wasting" sheetId="71" r:id="rId23"/>
+    <sheet name="Programs for children" sheetId="72" r:id="rId24"/>
     <sheet name="Programs for PW" sheetId="73" state="hidden" r:id="rId25"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId26"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId27"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6995,1773 +6995,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13">
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:O40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="93">
-        <v>0</v>
-      </c>
-      <c r="D2" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="94">
-        <v>0</v>
-      </c>
-      <c r="I2" s="94">
-        <v>0</v>
-      </c>
-      <c r="J2" s="94">
-        <v>0</v>
-      </c>
-      <c r="K2" s="94">
-        <v>0</v>
-      </c>
-      <c r="L2" s="94">
-        <v>0</v>
-      </c>
-      <c r="M2" s="94">
-        <v>0</v>
-      </c>
-      <c r="N2" s="94">
-        <v>0</v>
-      </c>
-      <c r="O2" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="93">
-        <v>1</v>
-      </c>
-      <c r="D3" s="93">
-        <v>0</v>
-      </c>
-      <c r="E3" s="93">
-        <v>0</v>
-      </c>
-      <c r="F3" s="93">
-        <v>0</v>
-      </c>
-      <c r="G3" s="93">
-        <v>0</v>
-      </c>
-      <c r="H3" s="94">
-        <v>0</v>
-      </c>
-      <c r="I3" s="94">
-        <v>0</v>
-      </c>
-      <c r="J3" s="94">
-        <v>0</v>
-      </c>
-      <c r="K3" s="94">
-        <v>0</v>
-      </c>
-      <c r="L3" s="94">
-        <v>0</v>
-      </c>
-      <c r="M3" s="94">
-        <v>0</v>
-      </c>
-      <c r="N3" s="94">
-        <v>0</v>
-      </c>
-      <c r="O3" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="93">
-        <v>1</v>
-      </c>
-      <c r="D4" s="93">
-        <v>0</v>
-      </c>
-      <c r="E4" s="93">
-        <v>0</v>
-      </c>
-      <c r="F4" s="93">
-        <v>0</v>
-      </c>
-      <c r="G4" s="93">
-        <v>0</v>
-      </c>
-      <c r="H4" s="94">
-        <v>0</v>
-      </c>
-      <c r="I4" s="94">
-        <v>0</v>
-      </c>
-      <c r="J4" s="94">
-        <v>0</v>
-      </c>
-      <c r="K4" s="94">
-        <v>0</v>
-      </c>
-      <c r="L4" s="94">
-        <v>0</v>
-      </c>
-      <c r="M4" s="94">
-        <v>0</v>
-      </c>
-      <c r="N4" s="94">
-        <v>0</v>
-      </c>
-      <c r="O4" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="93">
-        <v>0</v>
-      </c>
-      <c r="D5" s="93">
-        <v>0</v>
-      </c>
-      <c r="E5" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="93">
-        <v>0</v>
-      </c>
-      <c r="H5" s="94">
-        <v>0</v>
-      </c>
-      <c r="I5" s="94">
-        <v>0</v>
-      </c>
-      <c r="J5" s="94">
-        <v>0</v>
-      </c>
-      <c r="K5" s="94">
-        <v>0</v>
-      </c>
-      <c r="L5" s="94">
-        <v>0</v>
-      </c>
-      <c r="M5" s="94">
-        <v>0</v>
-      </c>
-      <c r="N5" s="94">
-        <v>0</v>
-      </c>
-      <c r="O5" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="93">
-        <v>0</v>
-      </c>
-      <c r="D6" s="93">
-        <v>0</v>
-      </c>
-      <c r="E6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="94">
-        <v>0</v>
-      </c>
-      <c r="I6" s="94">
-        <v>0</v>
-      </c>
-      <c r="J6" s="94">
-        <v>0</v>
-      </c>
-      <c r="K6" s="94">
-        <v>0</v>
-      </c>
-      <c r="L6" s="94">
-        <v>0</v>
-      </c>
-      <c r="M6" s="94">
-        <v>0</v>
-      </c>
-      <c r="N6" s="94">
-        <v>0</v>
-      </c>
-      <c r="O6" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="93">
-        <f>diarrhoea_1mo/26</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="93">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="93">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="93">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="93">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="94">
-        <v>0</v>
-      </c>
-      <c r="J7" s="94">
-        <v>0</v>
-      </c>
-      <c r="K7" s="94">
-        <v>0</v>
-      </c>
-      <c r="L7" s="94">
-        <v>0</v>
-      </c>
-      <c r="M7" s="94">
-        <v>0</v>
-      </c>
-      <c r="N7" s="94">
-        <v>0</v>
-      </c>
-      <c r="O7" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="93">
-        <v>0</v>
-      </c>
-      <c r="D8" s="93">
-        <v>0</v>
-      </c>
-      <c r="E8" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="93">
-        <v>0</v>
-      </c>
-      <c r="H8" s="94">
-        <v>0</v>
-      </c>
-      <c r="I8" s="94">
-        <v>0</v>
-      </c>
-      <c r="J8" s="94">
-        <v>0</v>
-      </c>
-      <c r="K8" s="94">
-        <v>0</v>
-      </c>
-      <c r="L8" s="94">
-        <v>0</v>
-      </c>
-      <c r="M8" s="94">
-        <v>0</v>
-      </c>
-      <c r="N8" s="94">
-        <v>0</v>
-      </c>
-      <c r="O8" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="93">
-        <v>0</v>
-      </c>
-      <c r="D9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="93">
-        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="94">
-        <v>0</v>
-      </c>
-      <c r="I9" s="94">
-        <v>0</v>
-      </c>
-      <c r="J9" s="94">
-        <v>0</v>
-      </c>
-      <c r="K9" s="94">
-        <v>0</v>
-      </c>
-      <c r="L9" s="94">
-        <v>0</v>
-      </c>
-      <c r="M9" s="94">
-        <v>0</v>
-      </c>
-      <c r="N9" s="94">
-        <v>0</v>
-      </c>
-      <c r="O9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="93">
-        <v>0</v>
-      </c>
-      <c r="D10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="93">
-        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="94">
-        <v>0</v>
-      </c>
-      <c r="I10" s="94">
-        <v>0</v>
-      </c>
-      <c r="J10" s="94">
-        <v>0</v>
-      </c>
-      <c r="K10" s="94">
-        <v>0</v>
-      </c>
-      <c r="L10" s="94">
-        <v>0</v>
-      </c>
-      <c r="M10" s="94">
-        <v>0</v>
-      </c>
-      <c r="N10" s="94">
-        <v>0</v>
-      </c>
-      <c r="O10" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="93">
-        <v>0</v>
-      </c>
-      <c r="D11" s="93">
-        <v>0</v>
-      </c>
-      <c r="E11" s="93">
-        <v>1</v>
-      </c>
-      <c r="F11" s="93">
-        <v>1</v>
-      </c>
-      <c r="G11" s="93">
-        <v>1</v>
-      </c>
-      <c r="H11" s="94">
-        <v>0</v>
-      </c>
-      <c r="I11" s="94">
-        <v>0</v>
-      </c>
-      <c r="J11" s="94">
-        <v>0</v>
-      </c>
-      <c r="K11" s="94">
-        <v>0</v>
-      </c>
-      <c r="L11" s="94">
-        <v>0</v>
-      </c>
-      <c r="M11" s="94">
-        <v>0</v>
-      </c>
-      <c r="N11" s="94">
-        <v>0</v>
-      </c>
-      <c r="O11" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="93">
-        <f>diarrhoea_1mo</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="93">
-        <f>diarrhoea_1_5mo</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="93">
-        <f>diarrhoea_6_11mo</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="93">
-        <f>diarrhoea_12_23mo</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="93">
-        <f>diarrhoea_24_59mo</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="94">
-        <v>0</v>
-      </c>
-      <c r="I12" s="94">
-        <v>0</v>
-      </c>
-      <c r="J12" s="94">
-        <v>0</v>
-      </c>
-      <c r="K12" s="94">
-        <v>0</v>
-      </c>
-      <c r="L12" s="94">
-        <v>0</v>
-      </c>
-      <c r="M12" s="94">
-        <v>0</v>
-      </c>
-      <c r="N12" s="94">
-        <v>0</v>
-      </c>
-      <c r="O12" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="93">
-        <v>0</v>
-      </c>
-      <c r="D13" s="93">
-        <v>0</v>
-      </c>
-      <c r="E13" s="93">
-        <v>1</v>
-      </c>
-      <c r="F13" s="93">
-        <v>1</v>
-      </c>
-      <c r="G13" s="93">
-        <v>1</v>
-      </c>
-      <c r="H13" s="94">
-        <v>0</v>
-      </c>
-      <c r="I13" s="94">
-        <v>0</v>
-      </c>
-      <c r="J13" s="94">
-        <v>0</v>
-      </c>
-      <c r="K13" s="94">
-        <v>0</v>
-      </c>
-      <c r="L13" s="94">
-        <v>0</v>
-      </c>
-      <c r="M13" s="94">
-        <v>0</v>
-      </c>
-      <c r="N13" s="94">
-        <v>0</v>
-      </c>
-      <c r="O13" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="94">
-        <v>0</v>
-      </c>
-      <c r="D15" s="94">
-        <v>0</v>
-      </c>
-      <c r="E15" s="94">
-        <v>0</v>
-      </c>
-      <c r="F15" s="94">
-        <v>0</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0</v>
-      </c>
-      <c r="H15" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="93">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="94">
-        <v>0</v>
-      </c>
-      <c r="M15" s="94">
-        <v>0</v>
-      </c>
-      <c r="N15" s="94">
-        <v>0</v>
-      </c>
-      <c r="O15" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="94">
-        <v>0</v>
-      </c>
-      <c r="D16" s="94">
-        <v>0</v>
-      </c>
-      <c r="E16" s="94">
-        <v>0</v>
-      </c>
-      <c r="F16" s="94">
-        <v>0</v>
-      </c>
-      <c r="G16" s="94">
-        <v>0</v>
-      </c>
-      <c r="H16" s="93">
-        <v>1</v>
-      </c>
-      <c r="I16" s="93">
-        <v>1</v>
-      </c>
-      <c r="J16" s="93">
-        <v>1</v>
-      </c>
-      <c r="K16" s="93">
-        <v>1</v>
-      </c>
-      <c r="L16" s="94">
-        <v>0</v>
-      </c>
-      <c r="M16" s="94">
-        <v>0</v>
-      </c>
-      <c r="N16" s="94">
-        <v>0</v>
-      </c>
-      <c r="O16" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="94">
-        <v>0</v>
-      </c>
-      <c r="D17" s="94">
-        <v>0</v>
-      </c>
-      <c r="E17" s="94">
-        <v>0</v>
-      </c>
-      <c r="F17" s="94">
-        <v>0</v>
-      </c>
-      <c r="G17" s="94">
-        <v>0</v>
-      </c>
-      <c r="H17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="93">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="94">
-        <v>0</v>
-      </c>
-      <c r="M17" s="94">
-        <v>0</v>
-      </c>
-      <c r="N17" s="94">
-        <v>0</v>
-      </c>
-      <c r="O17" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="94">
-        <v>0</v>
-      </c>
-      <c r="D18" s="94">
-        <v>0</v>
-      </c>
-      <c r="E18" s="94">
-        <v>0</v>
-      </c>
-      <c r="F18" s="94">
-        <v>0</v>
-      </c>
-      <c r="G18" s="94">
-        <v>0</v>
-      </c>
-      <c r="H18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="93">
-        <f>frac_PW_health_facility</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="94">
-        <v>0</v>
-      </c>
-      <c r="M18" s="94">
-        <v>0</v>
-      </c>
-      <c r="N18" s="94">
-        <v>0</v>
-      </c>
-      <c r="O18" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="94">
-        <v>0</v>
-      </c>
-      <c r="D19" s="94">
-        <v>0</v>
-      </c>
-      <c r="E19" s="94">
-        <v>0</v>
-      </c>
-      <c r="F19" s="94">
-        <v>0</v>
-      </c>
-      <c r="G19" s="94">
-        <v>0</v>
-      </c>
-      <c r="H19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="93">
-        <f>frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="94">
-        <v>0</v>
-      </c>
-      <c r="M19" s="94">
-        <v>0</v>
-      </c>
-      <c r="N19" s="94">
-        <v>0</v>
-      </c>
-      <c r="O19" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="94">
-        <v>0</v>
-      </c>
-      <c r="D20" s="94">
-        <v>0</v>
-      </c>
-      <c r="E20" s="94">
-        <v>0</v>
-      </c>
-      <c r="F20" s="94">
-        <v>0</v>
-      </c>
-      <c r="G20" s="94">
-        <v>0</v>
-      </c>
-      <c r="H20" s="93">
-        <v>1</v>
-      </c>
-      <c r="I20" s="93">
-        <v>1</v>
-      </c>
-      <c r="J20" s="93">
-        <v>1</v>
-      </c>
-      <c r="K20" s="93">
-        <v>1</v>
-      </c>
-      <c r="L20" s="94">
-        <v>0</v>
-      </c>
-      <c r="M20" s="94">
-        <v>0</v>
-      </c>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="O20" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="94">
-        <v>0</v>
-      </c>
-      <c r="D21" s="94">
-        <v>0</v>
-      </c>
-      <c r="E21" s="94">
-        <v>0</v>
-      </c>
-      <c r="F21" s="94">
-        <v>0</v>
-      </c>
-      <c r="G21" s="94">
-        <v>0</v>
-      </c>
-      <c r="H21" s="93">
-        <v>1</v>
-      </c>
-      <c r="I21" s="93">
-        <v>1</v>
-      </c>
-      <c r="J21" s="93">
-        <v>1</v>
-      </c>
-      <c r="K21" s="93">
-        <v>1</v>
-      </c>
-      <c r="L21" s="94">
-        <v>0</v>
-      </c>
-      <c r="M21" s="94">
-        <v>0</v>
-      </c>
-      <c r="N21" s="94">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="94">
-        <v>0</v>
-      </c>
-      <c r="D22" s="94">
-        <v>0</v>
-      </c>
-      <c r="E22" s="94">
-        <v>0</v>
-      </c>
-      <c r="F22" s="94">
-        <v>0</v>
-      </c>
-      <c r="G22" s="94">
-        <v>0</v>
-      </c>
-      <c r="H22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="93">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="94">
-        <v>0</v>
-      </c>
-      <c r="M22" s="94">
-        <v>0</v>
-      </c>
-      <c r="N22" s="94">
-        <v>0</v>
-      </c>
-      <c r="O22" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="94">
-        <v>0</v>
-      </c>
-      <c r="D24" s="94">
-        <v>0</v>
-      </c>
-      <c r="E24" s="94">
-        <v>0</v>
-      </c>
-      <c r="F24" s="94">
-        <v>0</v>
-      </c>
-      <c r="G24" s="94">
-        <v>0</v>
-      </c>
-      <c r="H24" s="94">
-        <v>0</v>
-      </c>
-      <c r="I24" s="94">
-        <v>0</v>
-      </c>
-      <c r="J24" s="94">
-        <v>0</v>
-      </c>
-      <c r="K24" s="94">
-        <v>0</v>
-      </c>
-      <c r="L24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="93">
-        <f>famplan_unmet_need</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="94">
-        <v>0</v>
-      </c>
-      <c r="D25" s="94">
-        <v>0</v>
-      </c>
-      <c r="E25" s="94">
-        <v>0</v>
-      </c>
-      <c r="F25" s="94">
-        <v>0</v>
-      </c>
-      <c r="G25" s="94">
-        <v>0</v>
-      </c>
-      <c r="H25" s="94">
-        <v>0</v>
-      </c>
-      <c r="I25" s="94">
-        <v>0</v>
-      </c>
-      <c r="J25" s="94">
-        <v>0</v>
-      </c>
-      <c r="K25" s="94">
-        <v>0</v>
-      </c>
-      <c r="L25" s="93">
-        <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
-        <v>0.49</v>
-      </c>
-      <c r="M25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49</v>
-      </c>
-      <c r="N25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49</v>
-      </c>
-      <c r="O25" s="93">
-        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="94">
-        <v>0</v>
-      </c>
-      <c r="D26" s="94">
-        <v>0</v>
-      </c>
-      <c r="E26" s="94">
-        <v>0</v>
-      </c>
-      <c r="F26" s="94">
-        <v>0</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0</v>
-      </c>
-      <c r="H26" s="94">
-        <v>0</v>
-      </c>
-      <c r="I26" s="94">
-        <v>0</v>
-      </c>
-      <c r="J26" s="94">
-        <v>0</v>
-      </c>
-      <c r="K26" s="94">
-        <v>0</v>
-      </c>
-      <c r="L26" s="93">
-        <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
-        <v>0.21</v>
-      </c>
-      <c r="M26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21</v>
-      </c>
-      <c r="N26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21</v>
-      </c>
-      <c r="O26" s="93">
-        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="94">
-        <v>0</v>
-      </c>
-      <c r="D27" s="94">
-        <v>0</v>
-      </c>
-      <c r="E27" s="94">
-        <v>0</v>
-      </c>
-      <c r="F27" s="94">
-        <v>0</v>
-      </c>
-      <c r="G27" s="94">
-        <v>0</v>
-      </c>
-      <c r="H27" s="94">
-        <v>0</v>
-      </c>
-      <c r="I27" s="94">
-        <v>0</v>
-      </c>
-      <c r="J27" s="94">
-        <v>0</v>
-      </c>
-      <c r="K27" s="94">
-        <v>0</v>
-      </c>
-      <c r="L27" s="93">
-        <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="N27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.3</v>
-      </c>
-      <c r="O27" s="93">
-        <f>(1-food_insecure)*(0.3)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="94">
-        <v>0</v>
-      </c>
-      <c r="D28" s="94">
-        <v>0</v>
-      </c>
-      <c r="E28" s="94">
-        <v>0</v>
-      </c>
-      <c r="F28" s="94">
-        <v>0</v>
-      </c>
-      <c r="G28" s="94">
-        <v>0</v>
-      </c>
-      <c r="H28" s="94">
-        <v>0</v>
-      </c>
-      <c r="I28" s="94">
-        <v>0</v>
-      </c>
-      <c r="J28" s="94">
-        <v>0</v>
-      </c>
-      <c r="K28" s="94">
-        <v>0</v>
-      </c>
-      <c r="L28" s="93">
-        <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="93">
-        <v>0</v>
-      </c>
-      <c r="N28" s="93">
-        <v>0</v>
-      </c>
-      <c r="O28" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="93">
-        <v>0</v>
-      </c>
-      <c r="D30" s="93">
-        <v>0</v>
-      </c>
-      <c r="E30" s="93">
-        <f t="shared" ref="E30:O30" si="0">frac_maize</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="93">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="93">
-        <v>0</v>
-      </c>
-      <c r="D31" s="93">
-        <v>0</v>
-      </c>
-      <c r="E31" s="93">
-        <f t="shared" ref="E31:O31" si="1">frac_rice</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="93">
-        <v>0</v>
-      </c>
-      <c r="D32" s="93">
-        <v>0</v>
-      </c>
-      <c r="E32" s="93">
-        <f t="shared" ref="E32:O32" si="2">frac_wheat</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="93">
-        <v>0</v>
-      </c>
-      <c r="D33" s="93">
-        <v>0</v>
-      </c>
-      <c r="E33" s="93">
-        <v>1</v>
-      </c>
-      <c r="F33" s="93">
-        <v>1</v>
-      </c>
-      <c r="G33" s="93">
-        <v>1</v>
-      </c>
-      <c r="H33" s="93">
-        <v>1</v>
-      </c>
-      <c r="I33" s="93">
-        <v>1</v>
-      </c>
-      <c r="J33" s="93">
-        <v>1</v>
-      </c>
-      <c r="K33" s="93">
-        <v>1</v>
-      </c>
-      <c r="L33" s="93">
-        <v>1</v>
-      </c>
-      <c r="M33" s="93">
-        <v>1</v>
-      </c>
-      <c r="N33" s="93">
-        <v>1</v>
-      </c>
-      <c r="O33" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="93">
-        <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="93">
-        <v>1</v>
-      </c>
-      <c r="D35" s="93">
-        <v>1</v>
-      </c>
-      <c r="E35" s="93">
-        <v>1</v>
-      </c>
-      <c r="F35" s="93">
-        <v>1</v>
-      </c>
-      <c r="G35" s="93">
-        <v>1</v>
-      </c>
-      <c r="H35" s="93">
-        <v>1</v>
-      </c>
-      <c r="I35" s="93">
-        <v>1</v>
-      </c>
-      <c r="J35" s="93">
-        <v>1</v>
-      </c>
-      <c r="K35" s="93">
-        <v>1</v>
-      </c>
-      <c r="L35" s="93">
-        <v>1</v>
-      </c>
-      <c r="M35" s="93">
-        <v>1</v>
-      </c>
-      <c r="N35" s="93">
-        <v>1</v>
-      </c>
-      <c r="O35" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="93">
-        <v>1</v>
-      </c>
-      <c r="D36" s="93">
-        <v>1</v>
-      </c>
-      <c r="E36" s="93">
-        <v>1</v>
-      </c>
-      <c r="F36" s="93">
-        <v>1</v>
-      </c>
-      <c r="G36" s="93">
-        <v>1</v>
-      </c>
-      <c r="H36" s="93">
-        <v>1</v>
-      </c>
-      <c r="I36" s="93">
-        <v>1</v>
-      </c>
-      <c r="J36" s="93">
-        <v>1</v>
-      </c>
-      <c r="K36" s="93">
-        <v>1</v>
-      </c>
-      <c r="L36" s="93">
-        <v>1</v>
-      </c>
-      <c r="M36" s="93">
-        <v>1</v>
-      </c>
-      <c r="N36" s="93">
-        <v>1</v>
-      </c>
-      <c r="O36" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="93">
-        <v>1</v>
-      </c>
-      <c r="D37" s="93">
-        <v>1</v>
-      </c>
-      <c r="E37" s="93">
-        <v>1</v>
-      </c>
-      <c r="F37" s="93">
-        <v>1</v>
-      </c>
-      <c r="G37" s="93">
-        <v>1</v>
-      </c>
-      <c r="H37" s="93">
-        <v>1</v>
-      </c>
-      <c r="I37" s="93">
-        <v>1</v>
-      </c>
-      <c r="J37" s="93">
-        <v>1</v>
-      </c>
-      <c r="K37" s="93">
-        <v>1</v>
-      </c>
-      <c r="L37" s="93">
-        <v>1</v>
-      </c>
-      <c r="M37" s="93">
-        <v>1</v>
-      </c>
-      <c r="N37" s="93">
-        <v>1</v>
-      </c>
-      <c r="O37" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="93">
-        <v>1</v>
-      </c>
-      <c r="D38" s="93">
-        <v>1</v>
-      </c>
-      <c r="E38" s="93">
-        <v>1</v>
-      </c>
-      <c r="F38" s="93">
-        <v>1</v>
-      </c>
-      <c r="G38" s="93">
-        <v>1</v>
-      </c>
-      <c r="H38" s="93">
-        <v>1</v>
-      </c>
-      <c r="I38" s="93">
-        <v>1</v>
-      </c>
-      <c r="J38" s="93">
-        <v>1</v>
-      </c>
-      <c r="K38" s="93">
-        <v>1</v>
-      </c>
-      <c r="L38" s="93">
-        <v>1</v>
-      </c>
-      <c r="M38" s="93">
-        <v>1</v>
-      </c>
-      <c r="N38" s="93">
-        <v>1</v>
-      </c>
-      <c r="O38" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="93">
-        <v>1</v>
-      </c>
-      <c r="D39" s="93">
-        <v>1</v>
-      </c>
-      <c r="E39" s="93">
-        <v>1</v>
-      </c>
-      <c r="F39" s="93">
-        <v>1</v>
-      </c>
-      <c r="G39" s="93">
-        <v>1</v>
-      </c>
-      <c r="H39" s="93">
-        <v>1</v>
-      </c>
-      <c r="I39" s="93">
-        <v>1</v>
-      </c>
-      <c r="J39" s="93">
-        <v>1</v>
-      </c>
-      <c r="K39" s="93">
-        <v>1</v>
-      </c>
-      <c r="L39" s="93">
-        <v>1</v>
-      </c>
-      <c r="M39" s="93">
-        <v>1</v>
-      </c>
-      <c r="N39" s="93">
-        <v>1</v>
-      </c>
-      <c r="O39" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
-    <sortCondition ref="B15:B22"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -10571,6 +8804,1773 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="93">
+        <v>0</v>
+      </c>
+      <c r="D2" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="94">
+        <v>0</v>
+      </c>
+      <c r="I2" s="94">
+        <v>0</v>
+      </c>
+      <c r="J2" s="94">
+        <v>0</v>
+      </c>
+      <c r="K2" s="94">
+        <v>0</v>
+      </c>
+      <c r="L2" s="94">
+        <v>0</v>
+      </c>
+      <c r="M2" s="94">
+        <v>0</v>
+      </c>
+      <c r="N2" s="94">
+        <v>0</v>
+      </c>
+      <c r="O2" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="93">
+        <v>1</v>
+      </c>
+      <c r="D3" s="93">
+        <v>0</v>
+      </c>
+      <c r="E3" s="93">
+        <v>0</v>
+      </c>
+      <c r="F3" s="93">
+        <v>0</v>
+      </c>
+      <c r="G3" s="93">
+        <v>0</v>
+      </c>
+      <c r="H3" s="94">
+        <v>0</v>
+      </c>
+      <c r="I3" s="94">
+        <v>0</v>
+      </c>
+      <c r="J3" s="94">
+        <v>0</v>
+      </c>
+      <c r="K3" s="94">
+        <v>0</v>
+      </c>
+      <c r="L3" s="94">
+        <v>0</v>
+      </c>
+      <c r="M3" s="94">
+        <v>0</v>
+      </c>
+      <c r="N3" s="94">
+        <v>0</v>
+      </c>
+      <c r="O3" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="93">
+        <v>1</v>
+      </c>
+      <c r="D4" s="93">
+        <v>0</v>
+      </c>
+      <c r="E4" s="93">
+        <v>0</v>
+      </c>
+      <c r="F4" s="93">
+        <v>0</v>
+      </c>
+      <c r="G4" s="93">
+        <v>0</v>
+      </c>
+      <c r="H4" s="94">
+        <v>0</v>
+      </c>
+      <c r="I4" s="94">
+        <v>0</v>
+      </c>
+      <c r="J4" s="94">
+        <v>0</v>
+      </c>
+      <c r="K4" s="94">
+        <v>0</v>
+      </c>
+      <c r="L4" s="94">
+        <v>0</v>
+      </c>
+      <c r="M4" s="94">
+        <v>0</v>
+      </c>
+      <c r="N4" s="94">
+        <v>0</v>
+      </c>
+      <c r="O4" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="93">
+        <v>0</v>
+      </c>
+      <c r="D5" s="93">
+        <v>0</v>
+      </c>
+      <c r="E5" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="93">
+        <v>0</v>
+      </c>
+      <c r="H5" s="94">
+        <v>0</v>
+      </c>
+      <c r="I5" s="94">
+        <v>0</v>
+      </c>
+      <c r="J5" s="94">
+        <v>0</v>
+      </c>
+      <c r="K5" s="94">
+        <v>0</v>
+      </c>
+      <c r="L5" s="94">
+        <v>0</v>
+      </c>
+      <c r="M5" s="94">
+        <v>0</v>
+      </c>
+      <c r="N5" s="94">
+        <v>0</v>
+      </c>
+      <c r="O5" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="93">
+        <v>0</v>
+      </c>
+      <c r="D6" s="93">
+        <v>0</v>
+      </c>
+      <c r="E6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="94">
+        <v>0</v>
+      </c>
+      <c r="I6" s="94">
+        <v>0</v>
+      </c>
+      <c r="J6" s="94">
+        <v>0</v>
+      </c>
+      <c r="K6" s="94">
+        <v>0</v>
+      </c>
+      <c r="L6" s="94">
+        <v>0</v>
+      </c>
+      <c r="M6" s="94">
+        <v>0</v>
+      </c>
+      <c r="N6" s="94">
+        <v>0</v>
+      </c>
+      <c r="O6" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="93">
+        <f>diarrhoea_1mo</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="93">
+        <f>diarrhoea_1_5mo</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="93">
+        <f>diarrhoea_6_11mo</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="93">
+        <f>diarrhoea_12_23mo</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="93">
+        <f>diarrhoea_24_59mo</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="94">
+        <v>0</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0</v>
+      </c>
+      <c r="K7" s="94">
+        <v>0</v>
+      </c>
+      <c r="L7" s="94">
+        <v>0</v>
+      </c>
+      <c r="M7" s="94">
+        <v>0</v>
+      </c>
+      <c r="N7" s="94">
+        <v>0</v>
+      </c>
+      <c r="O7" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="93">
+        <v>0</v>
+      </c>
+      <c r="D8" s="93">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="93">
+        <v>0</v>
+      </c>
+      <c r="H8" s="94">
+        <v>0</v>
+      </c>
+      <c r="I8" s="94">
+        <v>0</v>
+      </c>
+      <c r="J8" s="94">
+        <v>0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>0</v>
+      </c>
+      <c r="L8" s="94">
+        <v>0</v>
+      </c>
+      <c r="M8" s="94">
+        <v>0</v>
+      </c>
+      <c r="N8" s="94">
+        <v>0</v>
+      </c>
+      <c r="O8" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="93">
+        <v>0</v>
+      </c>
+      <c r="D9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="93">
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="94">
+        <v>0</v>
+      </c>
+      <c r="I9" s="94">
+        <v>0</v>
+      </c>
+      <c r="J9" s="94">
+        <v>0</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0</v>
+      </c>
+      <c r="L9" s="94">
+        <v>0</v>
+      </c>
+      <c r="M9" s="94">
+        <v>0</v>
+      </c>
+      <c r="N9" s="94">
+        <v>0</v>
+      </c>
+      <c r="O9" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="93">
+        <v>0</v>
+      </c>
+      <c r="D10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="94">
+        <v>0</v>
+      </c>
+      <c r="I10" s="94">
+        <v>0</v>
+      </c>
+      <c r="J10" s="94">
+        <v>0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0</v>
+      </c>
+      <c r="L10" s="94">
+        <v>0</v>
+      </c>
+      <c r="M10" s="94">
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>0</v>
+      </c>
+      <c r="O10" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="93">
+        <v>0</v>
+      </c>
+      <c r="D11" s="93">
+        <v>0</v>
+      </c>
+      <c r="E11" s="93">
+        <v>1</v>
+      </c>
+      <c r="F11" s="93">
+        <v>1</v>
+      </c>
+      <c r="G11" s="93">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94">
+        <v>0</v>
+      </c>
+      <c r="I11" s="94">
+        <v>0</v>
+      </c>
+      <c r="J11" s="94">
+        <v>0</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0</v>
+      </c>
+      <c r="L11" s="94">
+        <v>0</v>
+      </c>
+      <c r="M11" s="94">
+        <v>0</v>
+      </c>
+      <c r="N11" s="94">
+        <v>0</v>
+      </c>
+      <c r="O11" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="93">
+        <f>diarrhoea_1mo</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="93">
+        <f>diarrhoea_1_5mo</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="93">
+        <f>diarrhoea_6_11mo</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="93">
+        <f>diarrhoea_12_23mo</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="93">
+        <f>diarrhoea_24_59mo</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="94">
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="94">
+        <v>0</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0</v>
+      </c>
+      <c r="L12" s="94">
+        <v>0</v>
+      </c>
+      <c r="M12" s="94">
+        <v>0</v>
+      </c>
+      <c r="N12" s="94">
+        <v>0</v>
+      </c>
+      <c r="O12" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="93">
+        <v>0</v>
+      </c>
+      <c r="D13" s="93">
+        <v>0</v>
+      </c>
+      <c r="E13" s="93">
+        <v>1</v>
+      </c>
+      <c r="F13" s="93">
+        <v>1</v>
+      </c>
+      <c r="G13" s="93">
+        <v>1</v>
+      </c>
+      <c r="H13" s="94">
+        <v>0</v>
+      </c>
+      <c r="I13" s="94">
+        <v>0</v>
+      </c>
+      <c r="J13" s="94">
+        <v>0</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94">
+        <v>0</v>
+      </c>
+      <c r="M13" s="94">
+        <v>0</v>
+      </c>
+      <c r="N13" s="94">
+        <v>0</v>
+      </c>
+      <c r="O13" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="94">
+        <v>0</v>
+      </c>
+      <c r="D15" s="94">
+        <v>0</v>
+      </c>
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
+        <v>0</v>
+      </c>
+      <c r="G15" s="94">
+        <v>0</v>
+      </c>
+      <c r="H15" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="93">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="94">
+        <v>0</v>
+      </c>
+      <c r="M15" s="94">
+        <v>0</v>
+      </c>
+      <c r="N15" s="94">
+        <v>0</v>
+      </c>
+      <c r="O15" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="94">
+        <v>0</v>
+      </c>
+      <c r="D16" s="94">
+        <v>0</v>
+      </c>
+      <c r="E16" s="94">
+        <v>0</v>
+      </c>
+      <c r="F16" s="94">
+        <v>0</v>
+      </c>
+      <c r="G16" s="94">
+        <v>0</v>
+      </c>
+      <c r="H16" s="93">
+        <v>1</v>
+      </c>
+      <c r="I16" s="93">
+        <v>1</v>
+      </c>
+      <c r="J16" s="93">
+        <v>1</v>
+      </c>
+      <c r="K16" s="93">
+        <v>1</v>
+      </c>
+      <c r="L16" s="94">
+        <v>0</v>
+      </c>
+      <c r="M16" s="94">
+        <v>0</v>
+      </c>
+      <c r="N16" s="94">
+        <v>0</v>
+      </c>
+      <c r="O16" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="94">
+        <v>0</v>
+      </c>
+      <c r="D17" s="94">
+        <v>0</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0</v>
+      </c>
+      <c r="F17" s="94">
+        <v>0</v>
+      </c>
+      <c r="G17" s="94">
+        <v>0</v>
+      </c>
+      <c r="H17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="94">
+        <v>0</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0</v>
+      </c>
+      <c r="N17" s="94">
+        <v>0</v>
+      </c>
+      <c r="O17" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="94">
+        <v>0</v>
+      </c>
+      <c r="D18" s="94">
+        <v>0</v>
+      </c>
+      <c r="E18" s="94">
+        <v>0</v>
+      </c>
+      <c r="F18" s="94">
+        <v>0</v>
+      </c>
+      <c r="G18" s="94">
+        <v>0</v>
+      </c>
+      <c r="H18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="93">
+        <f>frac_PW_health_facility</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="94">
+        <v>0</v>
+      </c>
+      <c r="M18" s="94">
+        <v>0</v>
+      </c>
+      <c r="N18" s="94">
+        <v>0</v>
+      </c>
+      <c r="O18" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="94">
+        <v>0</v>
+      </c>
+      <c r="D19" s="94">
+        <v>0</v>
+      </c>
+      <c r="E19" s="94">
+        <v>0</v>
+      </c>
+      <c r="F19" s="94">
+        <v>0</v>
+      </c>
+      <c r="G19" s="94">
+        <v>0</v>
+      </c>
+      <c r="H19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="93">
+        <f>frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="94">
+        <v>0</v>
+      </c>
+      <c r="M19" s="94">
+        <v>0</v>
+      </c>
+      <c r="N19" s="94">
+        <v>0</v>
+      </c>
+      <c r="O19" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="94">
+        <v>0</v>
+      </c>
+      <c r="D20" s="94">
+        <v>0</v>
+      </c>
+      <c r="E20" s="94">
+        <v>0</v>
+      </c>
+      <c r="F20" s="94">
+        <v>0</v>
+      </c>
+      <c r="G20" s="94">
+        <v>0</v>
+      </c>
+      <c r="H20" s="93">
+        <v>1</v>
+      </c>
+      <c r="I20" s="93">
+        <v>1</v>
+      </c>
+      <c r="J20" s="93">
+        <v>1</v>
+      </c>
+      <c r="K20" s="93">
+        <v>1</v>
+      </c>
+      <c r="L20" s="94">
+        <v>0</v>
+      </c>
+      <c r="M20" s="94">
+        <v>0</v>
+      </c>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="O20" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="94">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94">
+        <v>0</v>
+      </c>
+      <c r="E21" s="94">
+        <v>0</v>
+      </c>
+      <c r="F21" s="94">
+        <v>0</v>
+      </c>
+      <c r="G21" s="94">
+        <v>0</v>
+      </c>
+      <c r="H21" s="93">
+        <v>1</v>
+      </c>
+      <c r="I21" s="93">
+        <v>1</v>
+      </c>
+      <c r="J21" s="93">
+        <v>1</v>
+      </c>
+      <c r="K21" s="93">
+        <v>1</v>
+      </c>
+      <c r="L21" s="94">
+        <v>0</v>
+      </c>
+      <c r="M21" s="94">
+        <v>0</v>
+      </c>
+      <c r="N21" s="94">
+        <v>0</v>
+      </c>
+      <c r="O21" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="94">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94">
+        <v>0</v>
+      </c>
+      <c r="E22" s="94">
+        <v>0</v>
+      </c>
+      <c r="F22" s="94">
+        <v>0</v>
+      </c>
+      <c r="G22" s="94">
+        <v>0</v>
+      </c>
+      <c r="H22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="93">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="94">
+        <v>0</v>
+      </c>
+      <c r="M22" s="94">
+        <v>0</v>
+      </c>
+      <c r="N22" s="94">
+        <v>0</v>
+      </c>
+      <c r="O22" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="94">
+        <v>0</v>
+      </c>
+      <c r="D24" s="94">
+        <v>0</v>
+      </c>
+      <c r="E24" s="94">
+        <v>0</v>
+      </c>
+      <c r="F24" s="94">
+        <v>0</v>
+      </c>
+      <c r="G24" s="94">
+        <v>0</v>
+      </c>
+      <c r="H24" s="94">
+        <v>0</v>
+      </c>
+      <c r="I24" s="94">
+        <v>0</v>
+      </c>
+      <c r="J24" s="94">
+        <v>0</v>
+      </c>
+      <c r="K24" s="94">
+        <v>0</v>
+      </c>
+      <c r="L24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="93">
+        <f>famplan_unmet_need</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="94">
+        <v>0</v>
+      </c>
+      <c r="D25" s="94">
+        <v>0</v>
+      </c>
+      <c r="E25" s="94">
+        <v>0</v>
+      </c>
+      <c r="F25" s="94">
+        <v>0</v>
+      </c>
+      <c r="G25" s="94">
+        <v>0</v>
+      </c>
+      <c r="H25" s="94">
+        <v>0</v>
+      </c>
+      <c r="I25" s="94">
+        <v>0</v>
+      </c>
+      <c r="J25" s="94">
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <v>0</v>
+      </c>
+      <c r="L25" s="93">
+        <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
+        <v>0.49</v>
+      </c>
+      <c r="M25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49</v>
+      </c>
+      <c r="N25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49</v>
+      </c>
+      <c r="O25" s="93">
+        <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="94">
+        <v>0</v>
+      </c>
+      <c r="D26" s="94">
+        <v>0</v>
+      </c>
+      <c r="E26" s="94">
+        <v>0</v>
+      </c>
+      <c r="F26" s="94">
+        <v>0</v>
+      </c>
+      <c r="G26" s="94">
+        <v>0</v>
+      </c>
+      <c r="H26" s="94">
+        <v>0</v>
+      </c>
+      <c r="I26" s="94">
+        <v>0</v>
+      </c>
+      <c r="J26" s="94">
+        <v>0</v>
+      </c>
+      <c r="K26" s="94">
+        <v>0</v>
+      </c>
+      <c r="L26" s="93">
+        <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
+        <v>0.21</v>
+      </c>
+      <c r="M26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21</v>
+      </c>
+      <c r="N26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21</v>
+      </c>
+      <c r="O26" s="93">
+        <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="94">
+        <v>0</v>
+      </c>
+      <c r="D27" s="94">
+        <v>0</v>
+      </c>
+      <c r="E27" s="94">
+        <v>0</v>
+      </c>
+      <c r="F27" s="94">
+        <v>0</v>
+      </c>
+      <c r="G27" s="94">
+        <v>0</v>
+      </c>
+      <c r="H27" s="94">
+        <v>0</v>
+      </c>
+      <c r="I27" s="94">
+        <v>0</v>
+      </c>
+      <c r="J27" s="94">
+        <v>0</v>
+      </c>
+      <c r="K27" s="94">
+        <v>0</v>
+      </c>
+      <c r="L27" s="93">
+        <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.3</v>
+      </c>
+      <c r="O27" s="93">
+        <f>(1-food_insecure)*(0.3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="94">
+        <v>0</v>
+      </c>
+      <c r="D28" s="94">
+        <v>0</v>
+      </c>
+      <c r="E28" s="94">
+        <v>0</v>
+      </c>
+      <c r="F28" s="94">
+        <v>0</v>
+      </c>
+      <c r="G28" s="94">
+        <v>0</v>
+      </c>
+      <c r="H28" s="94">
+        <v>0</v>
+      </c>
+      <c r="I28" s="94">
+        <v>0</v>
+      </c>
+      <c r="J28" s="94">
+        <v>0</v>
+      </c>
+      <c r="K28" s="94">
+        <v>0</v>
+      </c>
+      <c r="L28" s="93">
+        <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="93">
+        <v>0</v>
+      </c>
+      <c r="N28" s="93">
+        <v>0</v>
+      </c>
+      <c r="O28" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="93">
+        <v>0</v>
+      </c>
+      <c r="D30" s="93">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
+        <f t="shared" ref="E30:O30" si="0">frac_maize</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="93">
+        <v>0</v>
+      </c>
+      <c r="D31" s="93">
+        <v>0</v>
+      </c>
+      <c r="E31" s="93">
+        <f t="shared" ref="E31:O31" si="1">frac_rice</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="93">
+        <v>0</v>
+      </c>
+      <c r="D32" s="93">
+        <v>0</v>
+      </c>
+      <c r="E32" s="93">
+        <f t="shared" ref="E32:O32" si="2">frac_wheat</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="93">
+        <v>0</v>
+      </c>
+      <c r="D33" s="93">
+        <v>0</v>
+      </c>
+      <c r="E33" s="93">
+        <v>1</v>
+      </c>
+      <c r="F33" s="93">
+        <v>1</v>
+      </c>
+      <c r="G33" s="93">
+        <v>1</v>
+      </c>
+      <c r="H33" s="93">
+        <v>1</v>
+      </c>
+      <c r="I33" s="93">
+        <v>1</v>
+      </c>
+      <c r="J33" s="93">
+        <v>1</v>
+      </c>
+      <c r="K33" s="93">
+        <v>1</v>
+      </c>
+      <c r="L33" s="93">
+        <v>1</v>
+      </c>
+      <c r="M33" s="93">
+        <v>1</v>
+      </c>
+      <c r="N33" s="93">
+        <v>1</v>
+      </c>
+      <c r="O33" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="93">
+        <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="93">
+        <v>1</v>
+      </c>
+      <c r="D35" s="93">
+        <v>1</v>
+      </c>
+      <c r="E35" s="93">
+        <v>1</v>
+      </c>
+      <c r="F35" s="93">
+        <v>1</v>
+      </c>
+      <c r="G35" s="93">
+        <v>1</v>
+      </c>
+      <c r="H35" s="93">
+        <v>1</v>
+      </c>
+      <c r="I35" s="93">
+        <v>1</v>
+      </c>
+      <c r="J35" s="93">
+        <v>1</v>
+      </c>
+      <c r="K35" s="93">
+        <v>1</v>
+      </c>
+      <c r="L35" s="93">
+        <v>1</v>
+      </c>
+      <c r="M35" s="93">
+        <v>1</v>
+      </c>
+      <c r="N35" s="93">
+        <v>1</v>
+      </c>
+      <c r="O35" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="93">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93">
+        <v>1</v>
+      </c>
+      <c r="E36" s="93">
+        <v>1</v>
+      </c>
+      <c r="F36" s="93">
+        <v>1</v>
+      </c>
+      <c r="G36" s="93">
+        <v>1</v>
+      </c>
+      <c r="H36" s="93">
+        <v>1</v>
+      </c>
+      <c r="I36" s="93">
+        <v>1</v>
+      </c>
+      <c r="J36" s="93">
+        <v>1</v>
+      </c>
+      <c r="K36" s="93">
+        <v>1</v>
+      </c>
+      <c r="L36" s="93">
+        <v>1</v>
+      </c>
+      <c r="M36" s="93">
+        <v>1</v>
+      </c>
+      <c r="N36" s="93">
+        <v>1</v>
+      </c>
+      <c r="O36" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="93">
+        <v>1</v>
+      </c>
+      <c r="D37" s="93">
+        <v>1</v>
+      </c>
+      <c r="E37" s="93">
+        <v>1</v>
+      </c>
+      <c r="F37" s="93">
+        <v>1</v>
+      </c>
+      <c r="G37" s="93">
+        <v>1</v>
+      </c>
+      <c r="H37" s="93">
+        <v>1</v>
+      </c>
+      <c r="I37" s="93">
+        <v>1</v>
+      </c>
+      <c r="J37" s="93">
+        <v>1</v>
+      </c>
+      <c r="K37" s="93">
+        <v>1</v>
+      </c>
+      <c r="L37" s="93">
+        <v>1</v>
+      </c>
+      <c r="M37" s="93">
+        <v>1</v>
+      </c>
+      <c r="N37" s="93">
+        <v>1</v>
+      </c>
+      <c r="O37" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="93">
+        <v>1</v>
+      </c>
+      <c r="D38" s="93">
+        <v>1</v>
+      </c>
+      <c r="E38" s="93">
+        <v>1</v>
+      </c>
+      <c r="F38" s="93">
+        <v>1</v>
+      </c>
+      <c r="G38" s="93">
+        <v>1</v>
+      </c>
+      <c r="H38" s="93">
+        <v>1</v>
+      </c>
+      <c r="I38" s="93">
+        <v>1</v>
+      </c>
+      <c r="J38" s="93">
+        <v>1</v>
+      </c>
+      <c r="K38" s="93">
+        <v>1</v>
+      </c>
+      <c r="L38" s="93">
+        <v>1</v>
+      </c>
+      <c r="M38" s="93">
+        <v>1</v>
+      </c>
+      <c r="N38" s="93">
+        <v>1</v>
+      </c>
+      <c r="O38" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="93">
+        <v>1</v>
+      </c>
+      <c r="D39" s="93">
+        <v>1</v>
+      </c>
+      <c r="E39" s="93">
+        <v>1</v>
+      </c>
+      <c r="F39" s="93">
+        <v>1</v>
+      </c>
+      <c r="G39" s="93">
+        <v>1</v>
+      </c>
+      <c r="H39" s="93">
+        <v>1</v>
+      </c>
+      <c r="I39" s="93">
+        <v>1</v>
+      </c>
+      <c r="J39" s="93">
+        <v>1</v>
+      </c>
+      <c r="K39" s="93">
+        <v>1</v>
+      </c>
+      <c r="L39" s="93">
+        <v>1</v>
+      </c>
+      <c r="M39" s="93">
+        <v>1</v>
+      </c>
+      <c r="N39" s="93">
+        <v>1</v>
+      </c>
+      <c r="O39" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
+    <sortCondition ref="B15:B22"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -18499,7 +18499,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18542,16 +18542,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="121">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18573,16 +18573,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G5" s="121">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18597,10 +18597,10 @@
   <sheetPr codeName="Sheet24">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18980,37 +18980,37 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="121">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="121">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E18" s="121">
         <v>0</v>
@@ -19027,17 +19027,14 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>63</v>
-      </c>
       <c r="B19" s="53" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D19" s="121">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="121">
         <v>0</v>
@@ -19051,13 +19048,14 @@
       <c r="H19" s="121">
         <v>0</v>
       </c>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="121">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E20" s="121">
         <v>0</v>
@@ -19071,10 +19069,11 @@
       <c r="H20" s="121">
         <v>0</v>
       </c>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>27</v>
@@ -19097,6 +19096,7 @@
       <c r="H21" s="121">
         <v>0</v>
       </c>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
@@ -19117,31 +19117,32 @@
       <c r="H22" s="121">
         <v>0</v>
       </c>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D23" s="121">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -19149,7 +19150,7 @@
         <v>268</v>
       </c>
       <c r="D24" s="121">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E24" s="121">
         <v>0</v>
@@ -19165,11 +19166,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="121">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="121">
         <v>0</v>
@@ -19185,538 +19192,624 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="53" t="s">
+      <c r="C26" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="121">
+        <v>0.19</v>
+      </c>
+      <c r="E26" s="121">
+        <v>0</v>
+      </c>
+      <c r="F26" s="121">
+        <v>0</v>
+      </c>
+      <c r="G26" s="121">
+        <v>0</v>
+      </c>
+      <c r="H26" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C27" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="121">
-        <v>1</v>
-      </c>
-      <c r="E26" s="121">
-        <v>1</v>
-      </c>
-      <c r="F26" s="121">
-        <v>1</v>
-      </c>
-      <c r="G26" s="121">
-        <v>1</v>
-      </c>
-      <c r="H26" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="121">
+        <v>0</v>
+      </c>
+      <c r="E28" s="121">
+        <v>0</v>
+      </c>
+      <c r="F28" s="121">
+        <v>0</v>
+      </c>
+      <c r="G28" s="121">
+        <v>0</v>
+      </c>
+      <c r="H28" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="121">
-        <v>0</v>
-      </c>
-      <c r="E28" s="121">
-        <v>0</v>
-      </c>
-      <c r="F28" s="121">
-        <v>0</v>
-      </c>
-      <c r="G28" s="121">
-        <v>0</v>
-      </c>
-      <c r="H28" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="53" t="s">
+      <c r="D29" s="121">
+        <v>0</v>
+      </c>
+      <c r="E29" s="121">
+        <v>0</v>
+      </c>
+      <c r="F29" s="121">
+        <v>0</v>
+      </c>
+      <c r="G29" s="121">
+        <v>0</v>
+      </c>
+      <c r="H29" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C30" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="121">
-        <v>1</v>
-      </c>
-      <c r="E29" s="121">
-        <v>1</v>
-      </c>
-      <c r="F29" s="121">
-        <v>1</v>
-      </c>
-      <c r="G29" s="121">
-        <v>1</v>
-      </c>
-      <c r="H29" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="121">
+        <v>0</v>
+      </c>
+      <c r="E31" s="121">
+        <v>0</v>
+      </c>
+      <c r="F31" s="121">
+        <v>0</v>
+      </c>
+      <c r="G31" s="121">
+        <v>0</v>
+      </c>
+      <c r="H31" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="121">
-        <v>0</v>
-      </c>
-      <c r="E31" s="121">
-        <v>0</v>
-      </c>
-      <c r="F31" s="121">
-        <v>0</v>
-      </c>
-      <c r="G31" s="121">
-        <v>0</v>
-      </c>
-      <c r="H31" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="53" t="s">
+      <c r="D32" s="121">
+        <v>0</v>
+      </c>
+      <c r="E32" s="121">
+        <v>0</v>
+      </c>
+      <c r="F32" s="121">
+        <v>0</v>
+      </c>
+      <c r="G32" s="121">
+        <v>0</v>
+      </c>
+      <c r="H32" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C33" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="121">
-        <v>1</v>
-      </c>
-      <c r="E32" s="121">
-        <v>1</v>
-      </c>
-      <c r="F32" s="121">
-        <v>1</v>
-      </c>
-      <c r="G32" s="121">
-        <v>1</v>
-      </c>
-      <c r="H32" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="121">
+        <v>0</v>
+      </c>
+      <c r="E34" s="121">
+        <v>0</v>
+      </c>
+      <c r="F34" s="121">
+        <v>0</v>
+      </c>
+      <c r="G34" s="121">
+        <v>0</v>
+      </c>
+      <c r="H34" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="121">
-        <v>0</v>
-      </c>
-      <c r="E34" s="121">
-        <v>0</v>
-      </c>
-      <c r="F34" s="121">
-        <v>0</v>
-      </c>
-      <c r="G34" s="121">
-        <v>0</v>
-      </c>
-      <c r="H34" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="53" t="s">
+      <c r="D35" s="121">
+        <v>0</v>
+      </c>
+      <c r="E35" s="121">
+        <v>0</v>
+      </c>
+      <c r="F35" s="121">
+        <v>0</v>
+      </c>
+      <c r="G35" s="121">
+        <v>0</v>
+      </c>
+      <c r="H35" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C36" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="121">
-        <v>1</v>
-      </c>
-      <c r="E35" s="121">
-        <v>1</v>
-      </c>
-      <c r="F35" s="121">
-        <v>1</v>
-      </c>
-      <c r="G35" s="121">
-        <v>1</v>
-      </c>
-      <c r="H35" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="121">
+        <v>0</v>
+      </c>
+      <c r="E37" s="121">
+        <v>0</v>
+      </c>
+      <c r="F37" s="121">
+        <v>0</v>
+      </c>
+      <c r="G37" s="121">
+        <v>0</v>
+      </c>
+      <c r="H37" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="121">
-        <v>0</v>
-      </c>
-      <c r="E37" s="121">
-        <v>0</v>
-      </c>
-      <c r="F37" s="121">
-        <v>0</v>
-      </c>
-      <c r="G37" s="121">
-        <v>0</v>
-      </c>
-      <c r="H37" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="53" t="s">
+      <c r="D38" s="121">
+        <v>0</v>
+      </c>
+      <c r="E38" s="121">
+        <v>0</v>
+      </c>
+      <c r="F38" s="121">
+        <v>0</v>
+      </c>
+      <c r="G38" s="121">
+        <v>0</v>
+      </c>
+      <c r="H38" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C39" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="E38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="F38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="G38" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="H38" s="121">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="D39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="121">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="121">
+        <v>0</v>
+      </c>
+      <c r="E40" s="121">
+        <v>0</v>
+      </c>
+      <c r="F40" s="121">
+        <v>0</v>
+      </c>
+      <c r="G40" s="121">
+        <v>0</v>
+      </c>
+      <c r="H40" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="E40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="F40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="G40" s="121">
-        <v>0.65</v>
-      </c>
-      <c r="H40" s="121">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="53" t="s">
+      <c r="D41" s="121">
+        <v>0</v>
+      </c>
+      <c r="E41" s="121">
+        <v>0</v>
+      </c>
+      <c r="F41" s="121">
+        <v>0</v>
+      </c>
+      <c r="G41" s="121">
+        <v>0</v>
+      </c>
+      <c r="H41" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D42" s="121">
         <v>0.3</v>
       </c>
-      <c r="E41" s="121">
+      <c r="E42" s="121">
         <v>0.3</v>
       </c>
-      <c r="F41" s="121">
+      <c r="F42" s="121">
         <v>0.3</v>
       </c>
-      <c r="G41" s="121">
+      <c r="G42" s="121">
         <v>0.3</v>
       </c>
-      <c r="H41" s="121">
+      <c r="H42" s="121">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="121">
-        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="E43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="F43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="G43" s="121">
-        <v>0.63</v>
-      </c>
-      <c r="H43" s="121">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="53" t="s">
+      <c r="D44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="E44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="F44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="G44" s="121">
+        <v>0.65</v>
+      </c>
+      <c r="H44" s="121">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="E44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="F44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="G44" s="121">
-        <v>0.88</v>
-      </c>
-      <c r="H44" s="121">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="53" t="s">
+      <c r="D45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="G45" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="121">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="F45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="121">
-        <v>0.8</v>
-      </c>
-      <c r="H45" s="121">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>267</v>
-      </c>
       <c r="D46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="E47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="F47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="G47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="H47" s="121">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>267</v>
       </c>
       <c r="D48" s="121">
-        <v>0.57999999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="E48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="121">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H48" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="121">
+        <v>0.8</v>
+      </c>
+      <c r="H49" s="121">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="121">
+        <v>1</v>
+      </c>
+      <c r="E50" s="121">
+        <v>1</v>
+      </c>
+      <c r="F50" s="121">
+        <v>1</v>
+      </c>
+      <c r="G50" s="121">
+        <v>1</v>
+      </c>
+      <c r="H50" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="E51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="G51" s="121">
+        <v>0.76</v>
+      </c>
+      <c r="H51" s="121">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="121">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E52" s="121">
+        <v>0</v>
+      </c>
+      <c r="F52" s="121">
+        <v>0</v>
+      </c>
+      <c r="G52" s="121">
+        <v>0</v>
+      </c>
+      <c r="H52" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="121">
         <v>0.88</v>
       </c>
-      <c r="E49" s="121">
-        <v>0</v>
-      </c>
-      <c r="F49" s="121">
-        <v>0</v>
-      </c>
-      <c r="G49" s="121">
-        <v>0</v>
-      </c>
-      <c r="H49" s="121">
+      <c r="E53" s="121">
+        <v>0</v>
+      </c>
+      <c r="F53" s="121">
+        <v>0</v>
+      </c>
+      <c r="G53" s="121">
+        <v>0</v>
+      </c>
+      <c r="H53" s="121">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bJfjyPyxOmg6TlX60iT92X85D22oBlY+vu1d7tgcDNIGkFycV9FATVXJ9laBz2seRnELv9bqOzNsDkMZcATUsA==" saltValue="pdczIiGv+BfnP3+L1zsWWA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -20950,7 +21043,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21507,8 +21600,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26449B7-A21A-49C7-9BCF-05EAAF94619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3333067-1D32-41B8-A33F-6A8B7A02E48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16728" yWindow="-9660" windowWidth="23016" windowHeight="12336" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -94,14 +94,6 @@
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -18599,7 +18591,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -21042,8 +21034,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21060,31 +21052,13 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="E1">
-        <v>2012</v>
-      </c>
-      <c r="F1">
-        <v>2013</v>
-      </c>
-      <c r="G1">
-        <v>2014</v>
-      </c>
-      <c r="H1">
-        <v>2015</v>
-      </c>
-      <c r="I1">
-        <v>2016</v>
-      </c>
-      <c r="J1">
-        <v>2017</v>
-      </c>
-      <c r="K1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3333067-1D32-41B8-A33F-6A8B7A02E48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2CB43-EA62-40BA-B590-15BCACF8C40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16728" yWindow="-9660" windowWidth="23016" windowHeight="12336" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6206,14 +6206,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,93 +6249,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="71"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6344,74 +6344,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6420,26 +6420,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="68"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6455,48 +6455,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="68"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="68"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6515,52 +6515,52 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="65"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="65"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6568,25 +6568,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6610,7 +6610,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6618,7 +6618,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6665,104 +6665,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6785,85 +6785,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6883,9 +6883,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6997,7 +6997,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7010,7 +7010,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7736,7 +7736,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8108,7 +8108,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8349,7 +8349,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8810,7 +8810,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8822,7 +8822,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9810,10 +9810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10063,7 +10063,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10577,7 +10577,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10592,7 +10592,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10644,7 +10644,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10695,7 +10695,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10752,7 +10752,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10771,7 +10771,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10839,7 +10839,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10915,7 +10915,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -10934,7 +10934,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11031,7 +11031,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11065,7 +11065,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11082,7 +11082,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11101,7 +11101,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11154,7 +11154,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11171,7 +11171,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11266,7 +11266,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11285,7 +11285,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11340,7 +11340,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11355,7 +11355,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11448,7 +11448,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11477,7 +11477,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11506,7 +11506,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11535,7 +11535,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11556,7 +11556,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11598,7 +11598,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11619,7 +11619,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11714,7 +11714,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11722,7 +11722,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11884,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12102,14 +12102,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12307,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12351,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12416,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12460,14 +12460,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12600,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12644,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12774,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12821,6 +12821,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12830,12 +12836,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12853,7 +12853,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12863,12 +12863,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12883,7 +12883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12893,7 +12893,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -12961,13 +12961,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12985,14 +12985,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13075,7 +13075,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13086,7 +13086,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13226,10 +13226,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13250,7 +13250,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13261,12 +13261,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13332,7 +13332,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13360,7 +13360,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13416,7 +13416,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13475,7 +13475,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13677,7 +13677,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13705,7 +13705,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13733,7 +13733,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13820,7 +13820,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13876,7 +13876,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -13935,7 +13935,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -13963,7 +13963,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -13991,12 +13991,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14030,7 +14030,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14062,7 +14062,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14090,7 +14090,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14118,7 +14118,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14146,7 +14146,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14177,7 +14177,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14205,7 +14205,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14233,7 +14233,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14292,7 +14292,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14320,7 +14320,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14376,7 +14376,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14407,7 +14407,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14435,7 +14435,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14463,7 +14463,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14491,7 +14491,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14550,7 +14550,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14578,7 +14578,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14606,7 +14606,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14637,7 +14637,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14665,7 +14665,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14693,7 +14693,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14721,16 +14721,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14758,7 +14758,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14784,7 +14784,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14806,7 +14806,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14831,7 +14831,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14853,7 +14853,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14900,16 +14900,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14943,7 +14943,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14975,7 +14975,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15003,7 +15003,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15031,7 +15031,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15059,7 +15059,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15090,7 +15090,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15118,7 +15118,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15146,7 +15146,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15233,7 +15233,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15261,7 +15261,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15289,7 +15289,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15320,7 +15320,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15376,7 +15376,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15404,7 +15404,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15491,7 +15491,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15578,7 +15578,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15606,7 +15606,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15634,7 +15634,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15665,7 +15665,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15721,7 +15721,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15780,7 +15780,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15808,7 +15808,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15864,7 +15864,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15895,7 +15895,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15951,7 +15951,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15979,12 +15979,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16018,7 +16018,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16048,7 +16048,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16076,7 +16076,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16104,7 +16104,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16153,14 +16153,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -16304,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -16350,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -16396,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16764,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16787,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16879,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16971,7 +16971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17109,7 +17109,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17121,12 +17121,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17188,12 +17188,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17261,12 +17261,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17287,16 +17287,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17340,7 +17340,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17363,13 +17363,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17419,7 +17419,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17428,7 +17428,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17560,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17674,10 +17674,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17698,7 +17698,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17706,7 +17706,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17749,12 +17749,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18282,13 +18282,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18464,16 +18464,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18494,7 +18494,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18502,7 +18502,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18521,12 +18521,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18557,7 +18557,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18595,7 +18595,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18608,7 +18608,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19042,7 +19042,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19818,7 +19818,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -19827,7 +19827,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19849,7 +19849,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -19934,7 +19934,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -19958,7 +19958,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19992,24 +19992,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20030,7 +20030,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20039,7 +20039,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20074,7 +20074,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20239,14 +20239,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20257,7 +20257,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20272,55 +20272,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="76"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="76"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="76"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="76"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="76"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20331,7 +20331,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20340,7 +20340,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20370,7 +20370,7 @@
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20379,7 +20379,7 @@
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20388,7 +20388,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20397,7 +20397,7 @@
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20406,7 +20406,7 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20415,7 +20415,7 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20424,7 +20424,7 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20433,7 +20433,7 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20442,7 +20442,7 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20474,7 +20474,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20490,61 +20490,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="76"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="76"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="76"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="76"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="76"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="76"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="76"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20572,13 +20572,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20602,7 +20602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20656,7 +20656,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20667,7 +20667,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20678,7 +20678,7 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20686,7 +20686,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20694,7 +20694,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -20757,7 +20757,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -20767,7 +20767,7 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -20781,7 +20781,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -20843,7 +20843,7 @@
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -20900,14 +20900,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -20933,13 +20933,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -20963,7 +20963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -20976,7 +20976,7 @@
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -20986,7 +20986,7 @@
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -20996,7 +20996,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21034,17 +21034,17 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21081,10 +21081,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21104,10 +21104,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21127,7 +21127,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21144,7 +21144,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21161,7 +21161,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21181,7 +21181,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21198,7 +21198,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21248,11 +21248,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21260,7 +21260,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21291,63 +21291,59 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="81"/>
       <c r="E3" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="81"/>
       <c r="E4" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="58" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21356,7 +21352,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21367,29 +21363,25 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="81"/>
-      <c r="D10" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21400,7 +21392,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21411,7 +21403,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21420,7 +21412,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21434,7 +21426,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21446,7 +21438,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21458,7 +21450,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21470,7 +21462,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21482,7 +21474,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21511,7 +21503,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21519,7 +21511,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21533,7 +21525,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21547,7 +21539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21578,7 +21570,7 @@
       <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21588,7 +21580,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21606,7 +21598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21623,7 +21615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21640,7 +21632,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -21657,7 +21649,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -21674,7 +21666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -21691,7 +21683,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -21708,7 +21700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -21725,7 +21717,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -21742,7 +21734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -21759,7 +21751,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -21776,7 +21768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -21793,7 +21785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -21810,7 +21802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -21827,7 +21819,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -21844,7 +21836,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -21861,7 +21853,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -21878,7 +21870,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -21895,7 +21887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -21912,7 +21904,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -21929,7 +21921,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -21946,7 +21938,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -21963,7 +21955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -21980,7 +21972,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -21997,7 +21989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22014,7 +22006,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22031,7 +22023,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22048,7 +22040,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22065,7 +22057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22082,7 +22074,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22099,7 +22091,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22116,7 +22108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22133,7 +22125,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22150,7 +22142,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22167,7 +22159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22184,7 +22176,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22201,7 +22193,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22219,7 +22211,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22236,7 +22228,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22253,7 +22245,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2CB43-EA62-40BA-B590-15BCACF8C40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C02A01-1F9F-499F-88A5-46FC0D956811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6202,18 +6202,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6224,14 +6224,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6240,7 +6240,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6249,93 +6249,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="71"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6344,74 +6344,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6420,26 +6420,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="68"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6455,48 +6455,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="68"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="68"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6515,52 +6515,52 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="65"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="65"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6568,25 +6568,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6607,10 +6607,10 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6618,7 +6618,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6665,104 +6665,110 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6785,85 +6791,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6883,9 +6889,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6997,7 +7003,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -7010,7 +7016,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -7280,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -7588,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -7736,7 +7742,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -7828,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -8004,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -8092,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -8108,7 +8114,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -8156,7 +8162,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -8245,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -8289,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -8349,7 +8355,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -8396,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -8484,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -8617,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -8749,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -8806,11 +8812,11 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -8822,7 +8828,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -8869,7 +8875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -9008,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -9054,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -9101,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -9244,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -9292,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -9429,10 +9435,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -9528,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -9577,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -9626,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -9718,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -9762,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -9810,10 +9816,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -9864,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -9912,7 +9918,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -10053,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10063,7 +10069,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -10176,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -10231,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -10275,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -10332,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -10376,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -10421,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -10509,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -10553,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -10577,7 +10583,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10592,7 +10598,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10644,7 +10650,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10661,7 +10667,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10678,7 +10684,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10695,7 +10701,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10733,7 +10739,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10752,7 +10758,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10771,7 +10777,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10788,7 +10794,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10805,7 +10811,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10822,7 +10828,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10839,7 +10845,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10858,7 +10864,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10877,7 +10883,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10898,7 +10904,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10915,7 +10921,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -10934,7 +10940,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -10953,7 +10959,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -10972,7 +10978,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -10991,7 +10997,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11012,7 +11018,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11031,7 +11037,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11048,7 +11054,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11065,7 +11071,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11082,7 +11088,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11101,7 +11107,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11118,7 +11124,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11154,7 +11160,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11171,7 +11177,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11190,7 +11196,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11209,7 +11215,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11228,7 +11234,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11247,7 +11253,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11266,7 +11272,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11285,7 +11291,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11302,7 +11308,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11340,7 +11346,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11355,7 +11361,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11419,7 +11425,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11448,7 +11454,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11477,7 +11483,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11506,7 +11512,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11535,7 +11541,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11556,7 +11562,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11577,7 +11583,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11598,7 +11604,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11619,7 +11625,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11640,7 +11646,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11659,7 +11665,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11678,7 +11684,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11710,11 +11716,11 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11722,7 +11728,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11748,7 +11754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11774,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11796,7 +11802,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11818,7 +11824,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11863,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11884,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -11928,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -11993,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12014,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12058,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12079,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12102,14 +12108,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12135,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12156,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12177,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12200,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12221,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12242,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12286,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12307,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12351,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12372,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12389,13 +12395,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12410,13 +12416,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12437,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12460,14 +12466,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12493,7 +12499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12514,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12535,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12579,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12600,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12644,7 +12650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12665,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12688,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12709,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12730,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12774,7 +12780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12795,7 +12801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12821,12 +12827,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12836,6 +12836,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12853,7 +12859,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12863,12 +12869,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12883,7 +12889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12893,7 +12899,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -12944,7 +12950,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -12961,13 +12967,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12985,14 +12991,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13002,7 +13008,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13012,7 +13018,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13030,7 +13036,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13048,7 +13054,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13066,7 +13072,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13075,7 +13081,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13086,7 +13092,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13104,7 +13110,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13122,7 +13128,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13140,7 +13146,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13158,7 +13164,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13192,7 +13198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13209,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13226,10 +13232,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13246,11 +13252,11 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13261,12 +13267,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13300,7 +13306,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13332,7 +13338,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13360,7 +13366,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13388,7 +13394,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13416,7 +13422,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13447,7 +13453,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13475,7 +13481,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13503,7 +13509,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13531,7 +13537,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13562,7 +13568,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13590,7 +13596,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13618,7 +13624,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13646,7 +13652,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13677,7 +13683,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13705,7 +13711,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13733,7 +13739,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13761,7 +13767,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13792,7 +13798,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13820,7 +13826,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13848,7 +13854,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13876,7 +13882,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13907,7 +13913,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -13935,7 +13941,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -13963,7 +13969,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -13991,12 +13997,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14030,7 +14036,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14062,7 +14068,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14090,7 +14096,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14118,7 +14124,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14146,7 +14152,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14177,7 +14183,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14205,7 +14211,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14233,7 +14239,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14261,7 +14267,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14292,7 +14298,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14320,7 +14326,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14348,7 +14354,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14376,7 +14382,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14407,7 +14413,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14435,7 +14441,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14463,7 +14469,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14491,7 +14497,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14522,7 +14528,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14550,7 +14556,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14578,7 +14584,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14606,7 +14612,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14637,7 +14643,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14665,7 +14671,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14693,7 +14699,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14721,16 +14727,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14758,7 +14764,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14784,7 +14790,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14806,7 +14812,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14831,7 +14837,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14853,7 +14859,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14878,7 +14884,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14900,16 +14906,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14943,7 +14949,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14975,7 +14981,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15003,7 +15009,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15031,7 +15037,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15059,7 +15065,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15090,7 +15096,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15118,7 +15124,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15146,7 +15152,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15174,7 +15180,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15205,7 +15211,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15233,7 +15239,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15261,7 +15267,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15289,7 +15295,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15320,7 +15326,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15348,7 +15354,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15376,7 +15382,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15404,7 +15410,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15435,7 +15441,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15463,7 +15469,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15491,7 +15497,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15519,7 +15525,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15550,7 +15556,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15578,7 +15584,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15606,7 +15612,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15634,7 +15640,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15665,7 +15671,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15693,7 +15699,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15721,7 +15727,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15749,7 +15755,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15780,7 +15786,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15808,7 +15814,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15836,7 +15842,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15864,7 +15870,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15895,7 +15901,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15923,7 +15929,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15951,7 +15957,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15979,12 +15985,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16018,7 +16024,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16048,7 +16054,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16076,7 +16082,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16104,7 +16110,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16132,7 +16138,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16153,14 +16159,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16189,7 +16195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16212,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16235,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16258,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -16281,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -16304,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -16327,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -16350,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -16373,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -16396,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -16419,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -16442,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16465,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16488,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16511,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16534,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16557,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16580,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16603,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16626,7 +16632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16649,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16672,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16695,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16718,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16741,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16764,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16787,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16810,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16833,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16856,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16879,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16902,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16925,7 +16931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16948,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16971,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16994,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17017,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17040,7 +17046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17063,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17109,7 +17115,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17121,12 +17127,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17147,7 +17153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17167,7 +17173,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17188,12 +17194,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17213,7 +17219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17233,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17253,7 +17259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17261,12 +17267,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17287,16 +17293,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17319,7 +17325,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17340,7 +17346,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17363,13 +17369,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17383,7 +17389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17419,7 +17425,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17428,7 +17434,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17466,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17484,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17504,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17522,7 +17528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17542,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17560,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17580,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17598,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17618,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17636,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17656,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17674,10 +17680,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17698,7 +17704,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17706,7 +17712,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17749,12 +17755,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -17842,7 +17848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -17886,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -17930,7 +17936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -17974,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18018,7 +18024,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18062,7 +18068,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18194,7 +18200,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18238,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18282,13 +18288,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18420,7 +18426,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18464,16 +18470,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18494,7 +18500,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18502,7 +18508,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18521,12 +18527,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18546,7 +18552,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18557,7 +18563,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18595,7 +18601,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18608,7 +18614,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18634,7 +18640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18660,7 +18666,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18680,7 +18686,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18700,7 +18706,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18726,7 +18732,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18746,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18769,7 +18775,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18789,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18815,7 +18821,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -18835,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -18858,7 +18864,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -18925,7 +18931,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -18949,7 +18955,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -18970,7 +18976,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>185</v>
       </c>
@@ -18997,7 +19003,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>269</v>
       </c>
@@ -19018,7 +19024,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>65</v>
       </c>
@@ -19042,7 +19048,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>269</v>
       </c>
@@ -19063,7 +19069,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
@@ -19090,7 +19096,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19111,7 +19117,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>63</v>
       </c>
@@ -19137,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19157,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>64</v>
       </c>
@@ -19183,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="53" t="s">
         <v>268</v>
       </c>
@@ -19203,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>79</v>
       </c>
@@ -19229,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>268</v>
       </c>
@@ -19249,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="53" t="s">
         <v>269</v>
       </c>
@@ -19269,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>80</v>
       </c>
@@ -19295,7 +19301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>268</v>
       </c>
@@ -19315,7 +19321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="53" t="s">
         <v>269</v>
       </c>
@@ -19335,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>81</v>
       </c>
@@ -19361,7 +19367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>268</v>
       </c>
@@ -19381,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="53" t="s">
         <v>269</v>
       </c>
@@ -19401,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -19427,7 +19433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>268</v>
       </c>
@@ -19447,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="53" t="s">
         <v>269</v>
       </c>
@@ -19467,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>83</v>
       </c>
@@ -19493,7 +19499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>268</v>
       </c>
@@ -19513,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="53" t="s">
         <v>269</v>
       </c>
@@ -19533,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>60</v>
       </c>
@@ -19559,7 +19565,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>268</v>
       </c>
@@ -19579,7 +19585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="53" t="s">
         <v>269</v>
       </c>
@@ -19599,7 +19605,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
         <v>16</v>
       </c>
@@ -19622,7 +19628,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="53" t="s">
         <v>268</v>
       </c>
@@ -19642,7 +19648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>269</v>
       </c>
@@ -19662,7 +19668,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19708,7 +19714,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
@@ -19734,7 +19740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="53" t="s">
         <v>268</v>
       </c>
@@ -19754,7 +19760,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>196</v>
       </c>
@@ -19780,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="53" t="s">
         <v>268</v>
       </c>
@@ -19818,7 +19824,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -19827,7 +19833,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19849,7 +19855,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -19873,7 +19879,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -19891,7 +19897,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -19915,7 +19921,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -19934,7 +19940,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -19958,7 +19964,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19992,24 +19998,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -20030,7 +20036,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -20039,7 +20045,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -20056,7 +20062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -20074,7 +20080,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20092,7 +20098,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20110,7 +20116,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20128,7 +20134,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20146,7 +20152,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20164,7 +20170,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20182,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20218,7 +20224,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20239,14 +20245,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20257,7 +20263,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20272,55 +20278,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="76"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="76"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="76"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="76"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="76"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20331,7 +20337,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20340,7 +20346,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20361,7 +20367,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20370,7 +20376,7 @@
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20379,7 +20385,7 @@
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20388,7 +20394,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20397,7 +20403,7 @@
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20406,7 +20412,7 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20415,7 +20421,7 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20424,7 +20430,7 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20433,7 +20439,7 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20442,7 +20448,7 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20465,7 +20471,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20474,7 +20480,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20490,61 +20496,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="76"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="76"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="76"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="76"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="76"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="76"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="76"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20572,13 +20578,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20602,7 +20608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20630,7 +20636,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20656,7 +20662,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20667,7 +20673,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20678,7 +20684,7 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20686,7 +20692,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20694,7 +20700,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -20722,7 +20728,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -20747,7 +20753,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -20757,7 +20763,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -20767,7 +20773,7 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -20781,7 +20787,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -20825,7 +20831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -20843,7 +20849,7 @@
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -20900,14 +20906,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -20933,13 +20939,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -20963,7 +20969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -20976,7 +20982,7 @@
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -20986,7 +20992,7 @@
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -20996,7 +21002,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -21038,13 +21044,13 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -21061,7 +21067,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21081,10 +21087,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21104,10 +21110,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21127,7 +21133,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21144,7 +21150,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21161,7 +21167,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21181,7 +21187,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21198,7 +21204,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21218,7 +21224,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21248,11 +21254,11 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21260,7 +21266,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21277,7 +21283,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21291,7 +21297,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21305,7 +21311,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21319,7 +21325,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21331,7 +21337,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21343,7 +21349,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21352,7 +21358,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21363,7 +21369,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21372,7 +21378,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21381,7 +21387,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21392,7 +21398,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21403,7 +21409,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21412,7 +21418,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21426,7 +21432,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21438,7 +21444,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21450,31 +21456,35 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="82"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="D20" s="84" t="s">
+        <v>216</v>
+      </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21503,7 +21513,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21511,7 +21521,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21525,7 +21535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21539,7 +21549,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21566,11 +21576,11 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D39" sqref="D2:D39"/>
+    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21580,7 +21590,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21598,7 +21608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21615,7 +21625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21632,7 +21642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -21666,7 +21676,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -21683,7 +21693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -21700,7 +21710,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -21717,7 +21727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -21734,7 +21744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -21751,7 +21761,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -21768,7 +21778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -21785,7 +21795,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -21802,7 +21812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -21819,7 +21829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -21836,7 +21846,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -21853,7 +21863,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -21870,7 +21880,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -21887,7 +21897,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -21895,6 +21905,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="85">
+        <f>(1-food_insecure)*0.95</f>
         <v>0.95</v>
       </c>
       <c r="D19" s="86">
@@ -21904,7 +21915,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -21921,7 +21932,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -21938,7 +21949,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -21955,7 +21966,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -21972,7 +21983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -21989,7 +22000,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -22006,7 +22017,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -22023,7 +22034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -22040,7 +22051,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -22057,7 +22068,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22074,7 +22085,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22091,7 +22102,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22108,7 +22119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22125,7 +22136,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22142,7 +22153,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22159,7 +22170,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22176,7 +22187,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22193,7 +22204,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22211,7 +22222,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22228,7 +22239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22245,7 +22256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="36"/>
     </row>
   </sheetData>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C02A01-1F9F-499F-88A5-46FC0D956811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D253BF-7FB0-4242-9E8A-3B76298F238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17196" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6787,8 +6787,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6843,7 +6843,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
@@ -8812,7 +8814,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -12827,6 +12829,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12836,12 +12844,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D253BF-7FB0-4242-9E8A-3B76298F238A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA995363-EE77-4FD8-803A-966BE60F22B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="-13875" windowWidth="23250" windowHeight="12570" tabRatio="961" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs impacted population" sheetId="62" r:id="rId13"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId11"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId12"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
     <sheet name="Program risk areas" sheetId="63" r:id="rId15"/>
     <sheet name="Population risk areas" sheetId="64" r:id="rId16"/>
@@ -6781,220 +6781,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet11">
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12">
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="26">
-        <f>'Baseline year population inputs'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
-        <f>'Baseline year population inputs'!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <f>'Baseline year population inputs'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
-        <f>'Baseline year population inputs'!C54</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
-        <f>'Baseline year population inputs'!C55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="26">
-        <f>frac_mam_1month * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="26">
-        <f>frac_mam_1_5months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="26">
-        <f>frac_mam_6_11months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
-        <f>frac_mam_12_23months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
-        <f>frac_mam_24_59months * 2.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="26">
-        <f>frac_sam_1month * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <f>frac_sam_1_5months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <f>frac_sam_6_11months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <f>frac_sam_12_23months * 2.6</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <f>frac_sam_24_59months * 2.6</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -8804,6 +8590,220 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'Baseline year population inputs'!C51</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <f>'Baseline year population inputs'!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <f>'Baseline year population inputs'!C53</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <f>'Baseline year population inputs'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <f>'Baseline year population inputs'!C55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="26">
+        <f>frac_mam_1month * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <f>frac_mam_1_5months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <f>frac_mam_6_11months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>frac_mam_12_23months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>frac_mam_24_59months * 2.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="26">
+        <f>frac_sam_1month * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <f>frac_sam_1_5months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <f>frac_sam_6_11months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <f>frac_sam_12_23months * 2.6</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f>frac_sam_24_59months * 2.6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -11719,7 +11719,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11834,8 +11834,7 @@
         <v>178</v>
       </c>
       <c r="D5" s="105">
-        <f>5.16</f>
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E5" s="105">
         <v>1</v>
@@ -11856,7 +11855,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="105">
-        <v>5.16</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="105">
         <v>1</v>
@@ -11903,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F8" s="105">
         <v>1</v>
@@ -11924,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="105">
-        <v>5.16</v>
+        <v>2.48</v>
       </c>
       <c r="F9" s="105">
         <v>1</v>
@@ -12329,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G28" s="105">
         <v>1</v>
@@ -12350,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="105">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G29" s="105">
         <v>1</v>
@@ -12397,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H31" s="105">
         <v>1</v>
@@ -12418,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="105">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="H32" s="105">
         <v>1</v>
@@ -12829,12 +12828,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12844,6 +12837,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17114,7 +17113,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17232,10 +17231,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F7" s="121">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G7" s="121">
         <v>1</v>
@@ -18599,8 +18598,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18814,13 +18813,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -18834,10 +18833,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G10" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="121">
         <v>0</v>
@@ -18857,13 +18856,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" s="121">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -18877,10 +18876,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="121">
-        <v>0.25970149253731345</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H12" s="121">
         <v>0</v>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA995363-EE77-4FD8-803A-966BE60F22B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0084038-2732-4C83-B920-A2FF5DCB3AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6606,8 +6606,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6672,9 +6672,7 @@
       <c r="B6" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
@@ -12828,6 +12826,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12837,12 +12841,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18598,7 +18596,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="B10:F12"/>
     </sheetView>
   </sheetViews>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0084038-2732-4C83-B920-A2FF5DCB3AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F3B69-E041-4C9F-A694-89A432DF4351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6675,8 +6675,12 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6786,7 +6790,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8813,7 +8817,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8975,7 +8979,8 @@
         <v>196</v>
       </c>
       <c r="C4" s="93">
-        <v>1</v>
+        <f>frac_children_health_facility</f>
+        <v>0</v>
       </c>
       <c r="D4" s="93">
         <v>0</v>
@@ -12826,12 +12831,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12841,6 +12840,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18496,7 +18501,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18539,16 +18544,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18597,7 +18602,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="B10:F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18722,13 +18727,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="G5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="H5" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18742,13 +18750,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G6" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H6" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18765,13 +18776,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="G7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
       <c r="H7" s="121">
-        <v>0.33500000000000002</v>
+        <f>food_insecure</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -18785,13 +18799,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="G8" s="121">
-        <v>0.25970149253731345</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
       <c r="H8" s="121">
-        <v>0</v>
+        <f>0.085*2.6</f>
+        <v>0.22100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19790,7 +19807,7 @@
         <v>268</v>
       </c>
       <c r="D53" s="121">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E53" s="121">
         <v>0</v>
@@ -21254,7 +21271,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21428,7 +21445,7 @@
       <c r="D16" s="83"/>
       <c r="E16" s="59" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -21437,10 +21454,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="82"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E17" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -21449,10 +21468,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="82"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="81" t="s">
+        <v>216</v>
+      </c>
       <c r="E18" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -21466,7 +21487,7 @@
       </c>
       <c r="E19" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -21480,7 +21501,7 @@
       </c>
       <c r="E20" s="58" t="str">
         <f>IF(E$21="","",E$21)</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -21490,9 +21511,7 @@
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="82" t="s">
-        <v>216</v>
-      </c>
+      <c r="E21" s="82"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vq8GGOaRJ/GOerAtWxGFZETtNZKg0CexetWZmxch7xxZfD8kikbgXpfHcTl9WJ8jnE0H0jIRnikgCGGsTyAIVg==" saltValue="HrYs8mMt6vkZgEdYoitBSg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -21575,8 +21594,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21956,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="85">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="86">
         <v>50</v>

--- a/analyses/inputs/template.xlsx
+++ b/analyses/inputs/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\analyses\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F3B69-E041-4C9F-A694-89A432DF4351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FE66C-E5A8-4675-BA52-29580749D52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="961" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6675,12 +6675,8 @@
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12831,6 +12827,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12840,12 +12842,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
